--- a/fis.xlsx
+++ b/fis.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
